--- a/data/trans_orig/IP09B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB27DB41-B65D-4ED5-B7EA-97E6DCFD4732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{213E7099-2253-43EB-9236-A04E6D02A16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{24EF91D4-B846-4C0F-88F3-9B11BA5ED85B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{869CA247-25C3-49C7-BD22-1000E27D8D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,102 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>24,53%</t>
   </si>
   <si>
@@ -101,9 +191,6 @@
     <t>36,17%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>75,47%</t>
   </si>
   <si>
@@ -131,64 +218,61 @@
     <t>84,62%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,90 +332,6 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
     <t>18,02%</t>
   </si>
   <si>
@@ -389,6 +389,93 @@
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
   </si>
   <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
     <t>48,55%</t>
   </si>
   <si>
@@ -443,58 +530,58 @@
     <t>64,3%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>33,12%</t>
@@ -539,93 +626,6 @@
     <t>53,43%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
     <t>29,02%</t>
   </si>
   <si>
@@ -677,6 +677,84 @@
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
     <t>46,97%</t>
   </si>
   <si>
@@ -731,58 +809,58 @@
     <t>60,42%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>55,78%</t>
@@ -839,84 +917,6 @@
     <t>73,6%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
     <t>44,74%</t>
   </si>
   <si>
@@ -974,6 +974,66 @@
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
   </si>
   <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
     <t>37,59%</t>
   </si>
   <si>
@@ -1028,46 +1088,58 @@
     <t>84,17%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>29,1%</t>
@@ -1122,78 +1194,6 @@
   </si>
   <si>
     <t>75,89%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
   </si>
   <si>
     <t>27,95%</t>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0F95CE-E14E-4A11-B153-4C31495A1637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2822B52-9729-4FBF-98EE-9ED823E8F9E8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>6791</v>
+        <v>832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1772,85 +1772,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3192</v>
+        <v>929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1761</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9983</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1426</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1525</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2951</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7">
-        <v>20895</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11834</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7">
-        <v>32729</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,54 +1859,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>27686</v>
+        <v>2258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>15026</v>
+        <v>2454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>42712</v>
+        <v>4712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1918,13 +1918,13 @@
         <v>1206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1933,13 +1933,13 @@
         <v>1820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1948,19 +1948,19 @@
         <v>3027</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -1969,13 +1969,13 @@
         <v>13400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -1984,13 +1984,13 @@
         <v>5492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -1999,13 +1999,13 @@
         <v>18891</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2020,13 @@
         <v>14606</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -2035,13 +2035,13 @@
         <v>7312</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -2050,117 +2050,117 @@
         <v>21918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6791</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>3223</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
       <c r="I10" s="7">
-        <v>7303</v>
+        <v>3192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>10526</v>
+        <v>9983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20895</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7">
-        <v>18992</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
       <c r="I11" s="7">
-        <v>15610</v>
+        <v>11834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N11" s="7">
-        <v>34601</v>
+        <v>32729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,153 +2169,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>22215</v>
+        <v>27686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>22913</v>
+        <v>15026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N12" s="7">
-        <v>45127</v>
+        <v>42712</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>832</v>
+        <v>2747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>929</v>
+        <v>2934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>1761</v>
+        <v>5682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>1426</v>
+        <v>12619</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4935</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1525</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>27</v>
+      </c>
+      <c r="N14" s="7">
+        <v>17554</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2951</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2324,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>2258</v>
+        <v>15366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>2454</v>
+        <v>7869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N15" s="7">
-        <v>4712</v>
+        <v>23236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2747</v>
+        <v>3223</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2392,10 +2392,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>2934</v>
+        <v>7303</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2407,10 +2407,10 @@
         <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>5682</v>
+        <v>10526</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>85</v>
@@ -2425,13 +2425,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>12619</v>
+        <v>18992</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>88</v>
@@ -2443,10 +2443,10 @@
         <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>4935</v>
+        <v>15610</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2458,10 +2458,10 @@
         <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>17554</v>
+        <v>34601</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>94</v>
@@ -2479,49 +2479,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>15366</v>
+        <v>22215</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7">
         <v>30</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
       <c r="I18" s="7">
-        <v>7869</v>
+        <v>22913</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N18" s="7">
-        <v>23236</v>
+        <v>45127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>100</v>
@@ -2640,13 +2640,13 @@
         <v>82131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -2655,13 +2655,13 @@
         <v>55574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>204</v>
@@ -2670,13 +2670,13 @@
         <v>137705</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39E6BC6-FD64-4DA2-95D9-AE4EFEE26FD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F153E5-2876-4548-88BB-B8B92664AE90}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,100 +2815,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>15255</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="7">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11715</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1001</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="M4" s="7">
-        <v>40</v>
-      </c>
-      <c r="N4" s="7">
-        <v>26970</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>16167</v>
+        <v>3682</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2745</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6427</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="7">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16091</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="7">
-        <v>49</v>
-      </c>
-      <c r="N5" s="7">
-        <v>32258</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,54 +2917,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>31422</v>
+        <v>4683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>27806</v>
+        <v>2745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>59228</v>
+        <v>7428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2976,13 +2976,13 @@
         <v>4154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2991,13 +2991,13 @@
         <v>2852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3006,19 +3006,19 @@
         <v>7006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -3027,13 +3027,13 @@
         <v>7312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3042,13 +3042,13 @@
         <v>8468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -3057,13 +3057,13 @@
         <v>15780</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3078,13 @@
         <v>11466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3093,13 +3093,13 @@
         <v>11320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -3108,117 +3108,117 @@
         <v>22786</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>8628</v>
+        <v>15255</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11715</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="7">
+        <v>40</v>
+      </c>
+      <c r="N10" s="7">
+        <v>26970</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8031</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M10" s="7">
-        <v>23</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16659</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>17420</v>
+        <v>16167</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16091</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>49</v>
+      </c>
+      <c r="N11" s="7">
+        <v>32258</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13097</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="7">
-        <v>41</v>
-      </c>
-      <c r="N11" s="7">
-        <v>30517</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,99 +3227,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>26048</v>
+        <v>31422</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>21128</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="N12" s="7">
-        <v>47176</v>
+        <v>59228</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>1001</v>
+        <v>7239</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8370</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>24</v>
+      </c>
+      <c r="N13" s="7">
+        <v>15609</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1001</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>171</v>
@@ -3328,13 +3328,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>3682</v>
+        <v>17426</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>172</v>
@@ -3343,37 +3343,37 @@
         <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>2745</v>
+        <v>10873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>6427</v>
+        <v>28299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,49 +3382,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7">
-        <v>4683</v>
+        <v>24665</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
       <c r="I15" s="7">
-        <v>2745</v>
+        <v>19243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>7428</v>
+        <v>43908</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,100 +3435,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8628</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>7239</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
       <c r="I16" s="7">
-        <v>8370</v>
+        <v>8031</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>15609</v>
+        <v>16659</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>17426</v>
+        <v>17420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>10873</v>
+        <v>13097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>28299</v>
+        <v>30517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,49 +3537,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>24665</v>
+        <v>26048</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>19243</v>
+        <v>21128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>43908</v>
+        <v>47176</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3596,7 @@
         <v>36277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>195</v>
@@ -3638,7 +3638,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>88</v>
@@ -3647,7 +3647,7 @@
         <v>62007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>203</v>
@@ -3698,13 +3698,13 @@
         <v>98284</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>121</v>
@@ -3713,13 +3713,13 @@
         <v>82242</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>260</v>
@@ -3728,13 +3728,13 @@
         <v>180527</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9612309-10CC-4E54-9761-8AEDD99F6A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BFA277-4733-425F-A458-CD36DF224CFA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,100 +3873,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1034</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
-        <v>9414</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1099</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2134</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11405</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="7">
-        <v>31</v>
-      </c>
-      <c r="N4" s="7">
-        <v>20819</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>10627</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1133</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7">
-        <v>8191</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>18817</v>
+        <v>1133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,54 +3975,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>20041</v>
+        <v>1034</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>19596</v>
+        <v>2232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>39636</v>
+        <v>3267</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4034,13 @@
         <v>2860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4049,13 +4049,13 @@
         <v>3864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4064,19 +4064,19 @@
         <v>6725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -4085,13 +4085,13 @@
         <v>5815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4100,13 +4100,13 @@
         <v>2072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -4115,13 +4115,13 @@
         <v>7887</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>8675</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4151,13 +4151,13 @@
         <v>5936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4166,117 +4166,117 @@
         <v>14612</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>7045</v>
+        <v>9414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>2873</v>
+        <v>11405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>9917</v>
+        <v>20819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>5584</v>
+        <v>10627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>7477</v>
+        <v>8191</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>13061</v>
+        <v>18817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,150 +4285,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>12629</v>
+        <v>20041</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7">
-        <v>10350</v>
+        <v>19596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>22978</v>
+        <v>39636</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1034</v>
+        <v>2666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>1099</v>
+        <v>3689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>2134</v>
+        <v>6355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>6402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5319</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1133</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>19</v>
+      </c>
+      <c r="N14" s="7">
+        <v>11722</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1133</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>273</v>
@@ -4440,49 +4440,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>1034</v>
+        <v>9068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>2232</v>
+        <v>9008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>3267</v>
+        <v>18077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4493,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>2666</v>
+        <v>7045</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>274</v>
@@ -4508,10 +4508,10 @@
         <v>276</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3689</v>
+        <v>2873</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>277</v>
@@ -4523,10 +4523,10 @@
         <v>279</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>6355</v>
+        <v>9917</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>280</v>
@@ -4541,13 +4541,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>6402</v>
+        <v>5584</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>283</v>
@@ -4559,10 +4559,10 @@
         <v>285</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>5319</v>
+        <v>7477</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>286</v>
@@ -4574,10 +4574,10 @@
         <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>11722</v>
+        <v>13061</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>289</v>
@@ -4595,49 +4595,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>9068</v>
+        <v>12629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>9008</v>
+        <v>10350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>18077</v>
+        <v>22978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4696,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>41</v>
@@ -4756,13 +4756,13 @@
         <v>51447</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -4771,13 +4771,13 @@
         <v>47123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -4786,13 +4786,13 @@
         <v>98570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9849F1B-E289-498F-86A2-40D2B886EA2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586774E2-25CF-4E8B-9CC0-A4F89F188C07}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,100 +4931,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>9521</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1139</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1765</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M4" s="7">
-        <v>17</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11285</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>15807</v>
+        <v>1364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>16691</v>
+        <v>1468</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>32499</v>
+        <v>2832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,54 +5033,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>25328</v>
+        <v>2503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>18456</v>
+        <v>1468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>43784</v>
+        <v>3971</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5092,13 +5092,13 @@
         <v>534</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5107,13 +5107,13 @@
         <v>854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5122,19 +5122,19 @@
         <v>1388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -5143,13 +5143,13 @@
         <v>15721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5158,13 +5158,13 @@
         <v>9655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5173,13 +5173,13 @@
         <v>25376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5194,13 @@
         <v>16255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5209,13 +5209,13 @@
         <v>10509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -5224,117 +5224,117 @@
         <v>26764</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>7665</v>
+        <v>9521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>7305</v>
+        <v>1765</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>14970</v>
+        <v>11285</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>18674</v>
+        <v>15807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>8708</v>
+        <v>16691</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>27382</v>
+        <v>32499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,153 +5343,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>26339</v>
+        <v>25328</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>16013</v>
+        <v>18456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7">
-        <v>42352</v>
+        <v>43784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>1139</v>
+        <v>6169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>1139</v>
+        <v>8730</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>1364</v>
+        <v>12957</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11869</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M14" s="7">
+        <v>33</v>
+      </c>
+      <c r="N14" s="7">
+        <v>24826</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1468</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2832</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,49 +5498,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>2503</v>
+        <v>19126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7">
-        <v>1468</v>
+        <v>14430</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N15" s="7">
-        <v>3971</v>
+        <v>33556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,10 +5551,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>6169</v>
+        <v>7665</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>367</v>
@@ -5566,10 +5566,10 @@
         <v>369</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>2561</v>
+        <v>7305</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>370</v>
@@ -5581,10 +5581,10 @@
         <v>372</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>8730</v>
+        <v>14970</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>373</v>
@@ -5599,13 +5599,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>12957</v>
+        <v>18674</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>376</v>
@@ -5617,10 +5617,10 @@
         <v>378</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>11869</v>
+        <v>8708</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>379</v>
@@ -5632,10 +5632,10 @@
         <v>381</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>24826</v>
+        <v>27382</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>382</v>
@@ -5653,49 +5653,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>19126</v>
+        <v>26339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>14430</v>
+        <v>16013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>33556</v>
+        <v>42352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,7 +5754,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>80</v>
@@ -5814,13 +5814,13 @@
         <v>89551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
@@ -5829,13 +5829,13 @@
         <v>60876</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>209</v>
@@ -5844,13 +5844,13 @@
         <v>150428</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP09B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{213E7099-2253-43EB-9236-A04E6D02A16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE90DFF-B8A6-434B-8A60-8840C3FF5442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{869CA247-25C3-49C7-BD22-1000E27D8D2F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E41D6693-E2EC-4ADF-86A8-70574456CAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="404">
   <si>
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
   </si>
@@ -71,40 +71,40 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>37,85%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>87,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -113,1141 +113,1144 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>25,81%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
   </si>
   <si>
     <t>45,62%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1261,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1354,39 +1357,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1438,7 +1441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1549,13 +1552,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1564,6 +1560,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1628,19 +1631,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2822B52-9729-4FBF-98EE-9ED823E8F9E8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457E2158-CD5A-4F3B-B853-992C5F3C34AB}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1757,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>1426</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1772,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>929</v>
+        <v>1525</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1787,19 +1810,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1761</v>
+        <v>2951</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,10 +1831,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1426</v>
+        <v>832</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
@@ -1823,10 +1846,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1525</v>
+        <v>929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
@@ -1838,19 +1861,19 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>2951</v>
+        <v>1761</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,25 +1935,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>1206</v>
+        <v>13400</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>1820</v>
+        <v>5492</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1942,10 +1965,10 @@
         <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>3027</v>
+        <v>18891</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1963,25 +1986,25 @@
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>13400</v>
+        <v>1206</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>5492</v>
+        <v>1820</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
@@ -1993,10 +2016,10 @@
         <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>18891</v>
+        <v>3027</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>37</v>
@@ -2067,10 +2090,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>6791</v>
+        <v>20895</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>41</v>
@@ -2082,10 +2105,10 @@
         <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>3192</v>
+        <v>11834</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>44</v>
@@ -2097,10 +2120,10 @@
         <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>9983</v>
+        <v>32729</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>47</v>
@@ -2118,10 +2141,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>20895</v>
+        <v>6791</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>50</v>
@@ -2133,10 +2156,10 @@
         <v>52</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>11834</v>
+        <v>3192</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>53</v>
@@ -2148,10 +2171,10 @@
         <v>55</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>32729</v>
+        <v>9983</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>56</v>
@@ -2222,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>2747</v>
+        <v>12619</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>60</v>
@@ -2237,10 +2260,10 @@
         <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>2934</v>
+        <v>4935</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>63</v>
@@ -2252,10 +2275,10 @@
         <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>5682</v>
+        <v>17554</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>66</v>
@@ -2273,10 +2296,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>12619</v>
+        <v>2747</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>69</v>
@@ -2288,10 +2311,10 @@
         <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>4935</v>
+        <v>2934</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>72</v>
@@ -2303,10 +2326,10 @@
         <v>74</v>
       </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>17554</v>
+        <v>5682</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>75</v>
@@ -2377,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>3223</v>
+        <v>18992</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2392,10 +2415,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>7303</v>
+        <v>15610</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2407,10 +2430,10 @@
         <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N16" s="7">
-        <v>10526</v>
+        <v>34601</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>85</v>
@@ -2428,10 +2451,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>18992</v>
+        <v>3223</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>88</v>
@@ -2443,10 +2466,10 @@
         <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>15610</v>
+        <v>7303</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2458,10 +2481,10 @@
         <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>34601</v>
+        <v>10526</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>94</v>
@@ -2532,10 +2555,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7">
-        <v>14800</v>
+        <v>67331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>97</v>
@@ -2547,10 +2570,10 @@
         <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>16178</v>
+        <v>39396</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>100</v>
@@ -2562,10 +2585,10 @@
         <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="N19" s="7">
-        <v>30978</v>
+        <v>106727</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>103</v>
@@ -2583,10 +2606,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>67331</v>
+        <v>14800</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>106</v>
@@ -2598,10 +2621,10 @@
         <v>108</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I20" s="7">
-        <v>39396</v>
+        <v>16178</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>109</v>
@@ -2613,10 +2636,10 @@
         <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="N20" s="7">
-        <v>106727</v>
+        <v>30978</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>112</v>
@@ -2677,6 +2700,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2697,8 +2725,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F153E5-2876-4548-88BB-B8B92664AE90}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE8945-FD9A-4205-9F81-1ACBD55FFB4F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2714,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2815,49 +2843,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1001</v>
+        <v>3682</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>1001</v>
+        <v>6427</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,49 +2894,49 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3682</v>
+        <v>1001</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>6427</v>
+        <v>1001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,25 +2998,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>4154</v>
+        <v>7312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>2852</v>
+        <v>8468</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>130</v>
@@ -3000,10 +3028,10 @@
         <v>132</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>7006</v>
+        <v>15780</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>133</v>
@@ -3021,10 +3049,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>7312</v>
+        <v>4154</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>136</v>
@@ -3033,37 +3061,37 @@
         <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2852</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8468</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7006</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>15780</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,49 +3153,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>15255</v>
+        <v>16167</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16091</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11715</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>49</v>
+      </c>
+      <c r="N10" s="7">
+        <v>32258</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="7">
-        <v>40</v>
-      </c>
-      <c r="N10" s="7">
-        <v>26970</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,49 +3204,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>16167</v>
+        <v>15255</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11715</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="7">
-        <v>25</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16091</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>40</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26970</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="7">
-        <v>49</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32258</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,49 +3308,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>7239</v>
+        <v>17426</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10873</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8370</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>44</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28299</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M13" s="7">
-        <v>24</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15609</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,49 +3359,49 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>17426</v>
+        <v>7239</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8370</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10873</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>24</v>
+      </c>
+      <c r="N14" s="7">
+        <v>15609</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M14" s="7">
-        <v>44</v>
-      </c>
-      <c r="N14" s="7">
-        <v>28299</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,49 +3463,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>8628</v>
+        <v>17420</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13097</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8031</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N16" s="7">
-        <v>16659</v>
+        <v>30517</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,49 +3514,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8628</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8031</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
-        <v>17420</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13097</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="7">
-        <v>41</v>
-      </c>
       <c r="N17" s="7">
-        <v>30517</v>
+        <v>16659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,49 +3618,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7">
-        <v>36277</v>
+        <v>62007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>30968</v>
+        <v>51274</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="N19" s="7">
-        <v>67246</v>
+        <v>113281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,49 +3669,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>62007</v>
+        <v>36277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>51274</v>
+        <v>30968</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>113281</v>
+        <v>67246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,6 +3763,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3755,8 +3788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BFA277-4733-425F-A458-CD36DF224CFA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F91D1B-82B2-40D3-B329-CCAB97A150AB}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3772,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3873,28 +3906,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1099</v>
+        <v>1133</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -3903,19 +3936,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2134</v>
+        <v>1133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,28 +3957,28 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1133</v>
+        <v>1099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -3954,19 +3987,19 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1133</v>
+        <v>2134</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,49 +4061,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2860</v>
+        <v>5815</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3864</v>
+        <v>2072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>6725</v>
+        <v>7887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +4112,49 @@
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>5815</v>
+        <v>2860</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>2072</v>
+        <v>3864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>7887</v>
+        <v>6725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,49 +4216,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10627</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="7">
         <v>13</v>
       </c>
-      <c r="D10" s="7">
-        <v>9414</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
       <c r="I10" s="7">
-        <v>11405</v>
+        <v>8191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>20819</v>
+        <v>18817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4267,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>10627</v>
+        <v>9414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>8191</v>
+        <v>11405</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>18817</v>
+        <v>20819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,49 +4371,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>2666</v>
+        <v>6402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>3689</v>
+        <v>5319</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>6355</v>
+        <v>11722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,49 +4422,49 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2666</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3689</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
-        <v>6402</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5319</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M14" s="7">
-        <v>19</v>
-      </c>
       <c r="N14" s="7">
-        <v>11722</v>
+        <v>6355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,49 +4526,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5584</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
-        <v>7045</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
       <c r="I16" s="7">
-        <v>2873</v>
+        <v>7477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>9917</v>
+        <v>13061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,49 +4577,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>5584</v>
+        <v>7045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>7477</v>
+        <v>2873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>13061</v>
+        <v>9917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +4681,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>23018</v>
+        <v>28429</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>22931</v>
+        <v>24192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>45949</v>
+        <v>52621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +4732,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>28429</v>
+        <v>23018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>24192</v>
+        <v>22931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N20" s="7">
-        <v>52621</v>
+        <v>45949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,6 +4826,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4813,8 +4851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586774E2-25CF-4E8B-9CC0-A4F89F188C07}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97B947F-35A3-4B2A-9172-8233787B36E8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4830,7 +4868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4934,10 +4972,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1139</v>
+        <v>1364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -4946,34 +4984,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>1139</v>
+        <v>2832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1364</v>
+        <v>1139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -4997,34 +5035,34 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1468</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>2832</v>
+        <v>1139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,49 +5124,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>534</v>
+        <v>15721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>854</v>
+        <v>9655</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>1388</v>
+        <v>25376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,49 +5175,49 @@
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>15721</v>
+        <v>534</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>9655</v>
+        <v>854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>25376</v>
+        <v>1388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,49 +5279,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>9521</v>
+        <v>15807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>1765</v>
+        <v>16691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>11285</v>
+        <v>32499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,49 +5330,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>15807</v>
+        <v>9521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>16691</v>
+        <v>1765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>32499</v>
+        <v>11285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,49 +5434,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>6169</v>
+        <v>12957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>2561</v>
+        <v>11869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>8730</v>
+        <v>24826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,49 +5485,49 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>12957</v>
+        <v>6169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>11869</v>
+        <v>2561</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>24826</v>
+        <v>8730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,49 +5589,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>7665</v>
+        <v>18674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>7305</v>
+        <v>8708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>14970</v>
+        <v>27382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,49 +5640,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>18674</v>
+        <v>7665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>8708</v>
+        <v>7305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>27382</v>
+        <v>14970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,49 +5744,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>25027</v>
+        <v>64524</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>12485</v>
+        <v>48391</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="N19" s="7">
-        <v>37512</v>
+        <v>112916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,49 +5795,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>64524</v>
+        <v>25027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>48391</v>
+        <v>12485</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="N20" s="7">
-        <v>112916</v>
+        <v>37512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,6 +5889,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP09B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE90DFF-B8A6-434B-8A60-8840C3FF5442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF12991E-5C48-457D-83D0-8F329EA811EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E41D6693-E2EC-4ADF-86A8-70574456CAF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54949B57-382A-4E7B-95A3-3D9823578CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="406">
   <si>
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -89,7 +89,7 @@
     <t>62,63%</t>
   </si>
   <si>
-    <t>12,09%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,175 +104,175 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>87,91%</t>
+    <t>77,49%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>74,18%</t>
+    <t>74,73%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>25,82%</t>
+    <t>25,27%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>75,47%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,109 +281,109 @@
     <t>85,49%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>31,87%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -395,7 +395,7 @@
     <t>78,63%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>21,37%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -404,13 +404,7 @@
     <t>86,53%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>45,01%</t>
   </si>
   <si>
     <t>0%</t>
@@ -422,835 +416,847 @@
     <t>13,47%</t>
   </si>
   <si>
-    <t>53,71%</t>
+    <t>54,99%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>74,22%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
   </si>
   <si>
     <t>45,62%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457E2158-CD5A-4F3B-B853-992C5F3C34AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143AF6E7-37F2-4C32-9B02-1B1F35B4180D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE8945-FD9A-4205-9F81-1ACBD55FFB4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA2E49E-AD8F-40DD-BD3C-0B1A1917A6FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2900,13 +2906,13 @@
         <v>1001</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2918,10 +2924,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2930,13 +2936,13 @@
         <v>1001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3010,13 @@
         <v>7312</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3019,13 +3025,13 @@
         <v>8468</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3034,13 +3040,13 @@
         <v>15780</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3061,13 @@
         <v>4154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3788,7 +3794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F91D1B-82B2-40D3-B329-CCAB97A150AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E0C470-3516-41DF-8D76-5353DC6205A4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>217</v>
@@ -4705,10 +4711,10 @@
         <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -4717,13 +4723,13 @@
         <v>52621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4744,13 @@
         <v>23018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -4753,13 +4759,13 @@
         <v>22931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -4768,13 +4774,13 @@
         <v>45949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97B947F-35A3-4B2A-9172-8233787B36E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79FD223-257D-473C-BBB6-BAF94A152631}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4868,7 +4874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4975,7 +4981,7 @@
         <v>1364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -5005,10 +5011,10 @@
         <v>2832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -5026,7 +5032,7 @@
         <v>1139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -5044,10 +5050,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5056,13 +5062,13 @@
         <v>1139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,10 +5136,10 @@
         <v>15721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -5145,10 +5151,10 @@
         <v>9655</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -5160,13 +5166,13 @@
         <v>25376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5187,13 @@
         <v>534</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5196,13 +5202,13 @@
         <v>854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5211,13 +5217,13 @@
         <v>1388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5291,13 @@
         <v>15807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5300,13 +5306,13 @@
         <v>16691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5315,13 +5321,13 @@
         <v>32499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5342,13 @@
         <v>9521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5351,13 +5357,13 @@
         <v>1765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5366,13 +5372,13 @@
         <v>11285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5446,13 @@
         <v>12957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5455,13 +5461,13 @@
         <v>11869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -5470,13 +5476,13 @@
         <v>24826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5497,13 @@
         <v>6169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5506,13 +5512,13 @@
         <v>2561</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5521,13 +5527,13 @@
         <v>8730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5601,13 @@
         <v>18674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5610,13 +5616,13 @@
         <v>8708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5625,13 +5631,13 @@
         <v>27382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5652,13 @@
         <v>7665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5661,13 +5667,13 @@
         <v>7305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -5676,13 +5682,13 @@
         <v>14970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5756,13 @@
         <v>64524</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -5765,13 +5771,13 @@
         <v>48391</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -5780,13 +5786,13 @@
         <v>112916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5807,13 @@
         <v>25027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5816,13 +5822,13 @@
         <v>12485</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5831,13 +5837,13 @@
         <v>37512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
